--- a/Examenvragen-4.xlsx
+++ b/Examenvragen-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/Documents/R/MKASummaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederic/Documents/R/Projects/MKASummaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08E741B-8655-0A4C-A3EC-D0A92A36F757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD2A3C-D5AE-7844-94CF-EB865032C07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Examenvragen-4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Nummer</t>
   </si>
@@ -560,12 +560,18 @@
   </si>
   <si>
     <t>Bespreek de behandeling van PFE (primair falen van eruptie) van hoektanden</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1399,1442 +1405,1450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="D100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="D101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="D116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="D163" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D171" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="D178" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>179</v>
       </c>
     </row>
